--- a/1_Result_Tables/6_naive_forecaster_qoq_evaluations_ifoCASTset_naive_qoq_full/AVERAGE_1_9_qoq_forecast_error_table_latest_eval_ifoCASTset_naive_qoq_full.xlsx
+++ b/1_Result_Tables/6_naive_forecaster_qoq_evaluations_ifoCASTset_naive_qoq_full/AVERAGE_1_9_qoq_forecast_error_table_latest_eval_ifoCASTset_naive_qoq_full.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.05254719489915329</v>
+        <v>-0.01944167324622808</v>
       </c>
       <c r="C2">
-        <v>1.40062235050163</v>
+        <v>1.290629691791469</v>
       </c>
       <c r="D2">
-        <v>9.328416759116068</v>
+        <v>10.351458416846</v>
       </c>
       <c r="E2">
-        <v>3.054245693967018</v>
+        <v>3.21736824389842</v>
       </c>
       <c r="F2">
-        <v>3.088300870786737</v>
+        <v>3.252860963509644</v>
       </c>
       <c r="G2">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.02099178524392832</v>
+        <v>-0.05254719489915329</v>
       </c>
       <c r="C3">
-        <v>1.29207289857148</v>
+        <v>1.40062235050163</v>
       </c>
       <c r="D3">
-        <v>6.982594308798384</v>
+        <v>9.328416759116068</v>
       </c>
       <c r="E3">
-        <v>2.642459897292366</v>
+        <v>3.054245693967018</v>
       </c>
       <c r="F3">
-        <v>2.672925236537107</v>
+        <v>3.088300870786737</v>
       </c>
       <c r="G3">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.0004895294789462111</v>
+        <v>-0.02099178524392832</v>
       </c>
       <c r="C4">
-        <v>1.477077872062758</v>
+        <v>1.29207289857148</v>
       </c>
       <c r="D4">
-        <v>9.266044802726039</v>
+        <v>6.982594308798384</v>
       </c>
       <c r="E4">
-        <v>3.044017871617386</v>
+        <v>2.642459897292366</v>
       </c>
       <c r="F4">
-        <v>3.08004296589055</v>
+        <v>2.672925236537107</v>
       </c>
       <c r="G4">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.02885109190845321</v>
+        <v>0.0004895294789462111</v>
       </c>
       <c r="C5">
-        <v>1.421056649063091</v>
+        <v>1.477077872062758</v>
       </c>
       <c r="D5">
-        <v>8.672676309367013</v>
+        <v>9.266044802726039</v>
       </c>
       <c r="E5">
-        <v>2.944940798957937</v>
+        <v>3.044017871617386</v>
       </c>
       <c r="F5">
-        <v>2.98049531324067</v>
+        <v>3.08004296589055</v>
       </c>
       <c r="G5">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.02363787830501549</v>
+        <v>-0.02885109190845321</v>
       </c>
       <c r="C6">
-        <v>1.542198719095899</v>
+        <v>1.421056649063091</v>
       </c>
       <c r="D6">
-        <v>8.571086655674669</v>
+        <v>8.672676309367013</v>
       </c>
       <c r="E6">
-        <v>2.927641825031653</v>
+        <v>2.944940798957937</v>
       </c>
       <c r="F6">
-        <v>2.963914827393578</v>
+        <v>2.98049531324067</v>
       </c>
       <c r="G6">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01783207364159975</v>
+        <v>0.02363787830501549</v>
       </c>
       <c r="C7">
-        <v>1.544747406511997</v>
+        <v>1.542198719095899</v>
       </c>
       <c r="D7">
-        <v>9.110940774286881</v>
+        <v>8.571086655674669</v>
       </c>
       <c r="E7">
-        <v>3.018433496747424</v>
+        <v>2.927641825031653</v>
       </c>
       <c r="F7">
-        <v>3.056833084098224</v>
+        <v>2.963914827393578</v>
       </c>
       <c r="G7">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.03372564252606165</v>
+        <v>-0.01783207364159975</v>
       </c>
       <c r="C8">
-        <v>1.637897354089427</v>
+        <v>1.544747406511997</v>
       </c>
       <c r="D8">
-        <v>9.501379850560932</v>
+        <v>9.110940774286881</v>
       </c>
       <c r="E8">
-        <v>3.082430834675927</v>
+        <v>3.018433496747424</v>
       </c>
       <c r="F8">
-        <v>3.122538840651307</v>
+        <v>3.056833084098224</v>
       </c>
       <c r="G8">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.005103434085457086</v>
+        <v>0.03372564252606165</v>
       </c>
       <c r="C9">
-        <v>1.629536457627884</v>
+        <v>1.637897354089427</v>
       </c>
       <c r="D9">
-        <v>9.584745156882731</v>
+        <v>9.501379850560932</v>
       </c>
       <c r="E9">
-        <v>3.09592395851105</v>
+        <v>3.082430834675927</v>
       </c>
       <c r="F9">
-        <v>3.137477581485726</v>
+        <v>3.122538840651307</v>
       </c>
       <c r="G9">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.03502999835891503</v>
+        <v>0.005103434085457086</v>
       </c>
       <c r="C10">
-        <v>1.697256942887071</v>
+        <v>1.629536457627884</v>
       </c>
       <c r="D10">
-        <v>9.936507304615976</v>
+        <v>9.584745156882731</v>
       </c>
       <c r="E10">
-        <v>3.152222597567623</v>
+        <v>3.09592395851105</v>
       </c>
       <c r="F10">
-        <v>3.195506252457179</v>
+        <v>3.137477581485726</v>
       </c>
       <c r="G10">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0505259352620178</v>
+        <v>0.03502999835891503</v>
       </c>
       <c r="C11">
-        <v>1.586004721176655</v>
+        <v>1.697256942887071</v>
       </c>
       <c r="D11">
-        <v>9.570925968699539</v>
+        <v>9.936507304615976</v>
       </c>
       <c r="E11">
-        <v>3.093691317617118</v>
+        <v>3.152222597567623</v>
       </c>
       <c r="F11">
-        <v>3.137157182401908</v>
+        <v>3.195506252457179</v>
       </c>
       <c r="G11">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
